--- a/プロジェクト型演習_成果物(ログイン).xlsx
+++ b/プロジェクト型演習_成果物(ログイン).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712F119C-3013-44F6-ADF6-428027D093F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A07D51F-B122-4685-ABB3-9BA91AAA8A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -300,6 +300,28 @@
     <t>ProjectX</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>ログイン認証に失敗した場合はログイン失敗画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -326,6 +348,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1018,6 +1041,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,56 +1071,23 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1102,11 +1095,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1123,17 +1116,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1144,28 +1146,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1185,24 +1226,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4214,22 +4237,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1038749</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>143245</xdr:rowOff>
+      <xdr:colOff>714875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9886B69-EF60-3D9C-A72D-6F92202867A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC29741-9594-C66C-F049-C3B7940DF8C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4245,8 +4268,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2771775" y="1704975"/>
-          <a:ext cx="3753374" cy="2648320"/>
+          <a:off x="2619375" y="1581150"/>
+          <a:ext cx="3581900" cy="2048161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4458,7 +4481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:O6"/>
     </sheetView>
   </sheetViews>
@@ -4470,85 +4493,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -4568,48 +4591,48 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="21" t="s">
+      <c r="H13" s="24"/>
+      <c r="I13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="21"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="29">
+      <c r="G14" s="22"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="30">
         <v>45631</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -4618,13 +4641,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -5631,7 +5654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -5643,19 +5666,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -5667,186 +5690,188 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="32" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="38">
+      <c r="E2" s="65"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="68">
         <v>45631</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="42"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="43"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="44"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="65" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="66"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="47" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="48"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="47" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="48"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="47" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="48"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="67" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="48"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="48"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="48"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="48"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="63" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="64"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -6837,6 +6862,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -6845,25 +6889,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -6887,20 +6912,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="31"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="51"/>
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
@@ -6912,49 +6937,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="32" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="38">
+      <c r="E2" s="65"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="68">
         <v>45631</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="43"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="44"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7202,7 +7227,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
-      <c r="M23" s="82"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1">
       <c r="A24" s="8"/>
@@ -8300,7 +8325,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J1004"/>
+  <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
@@ -8314,19 +8339,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
@@ -8338,367 +8363,334 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="32" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="38">
+      <c r="E2" s="65"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="68">
         <v>45631</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="42"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="43"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="71" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="66"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="48"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="74"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="75"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="75"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="81"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="75"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="75"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="75"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="75"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="81"/>
     </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="75"/>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="81"/>
     </row>
-    <row r="15" spans="1:10" ht="21" customHeight="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="75"/>
-    </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="75"/>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="75"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="69" t="s">
+    <row r="15" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A15" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="48"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="38"/>
     </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="69" t="s">
+    <row r="16" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A16" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="47" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="15" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J16" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="69" t="s">
+    <row r="17" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A17" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="15" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="76" t="s">
+      <c r="H17" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="48"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="38"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A18" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="38"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A19" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="38"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A20" s="73"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="48"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>47</v>
-      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="48"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="48"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="48"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="48"/>
-    </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="48"/>
-    </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A27" s="78"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="64"/>
-    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="28" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="30" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9673,42 +9665,39 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
     <row r="1001" ht="12.75" customHeight="1"/>
-    <row r="1002" ht="12.75" customHeight="1"/>
-    <row r="1003" ht="12.75" customHeight="1"/>
-    <row r="1004" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H21:J21"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物(ログイン).xlsx
+++ b/プロジェクト型演習_成果物(ログイン).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A07D51F-B122-4685-ABB3-9BA91AAA8A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F638A00-9342-43E9-8B78-1FBF26CDDAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="795" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -261,10 +261,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>/login-servlet</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -320,6 +316,10 @@
     <rPh sb="23" eb="25">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>/LoginServlet</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1071,23 +1071,56 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1095,11 +1128,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1116,26 +1149,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1146,44 +1170,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1197,9 +1197,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1207,6 +1204,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4481,7 +4481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:O6"/>
     </sheetView>
   </sheetViews>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
       <c r="G17" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -5666,19 +5666,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="63" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -5690,70 +5690,70 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="45"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="26"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="68">
+      <c r="E2" s="34"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="39">
         <v>45631</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="26"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="61"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="34" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="67"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="48" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="23"/>
@@ -5761,15 +5761,15 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
-      <c r="J6" s="38"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="48" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="23"/>
@@ -5777,15 +5777,15 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
-      <c r="J7" s="38"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="48" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="23"/>
@@ -5793,17 +5793,17 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="38"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="24"/>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="68" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="23"/>
@@ -5811,67 +5811,67 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="38"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="56" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="37"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="38"/>
+      <c r="J10" s="49"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="24"/>
-      <c r="D11" s="37" t="s">
-        <v>52</v>
+      <c r="D11" s="48" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="38"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
-      <c r="D12" s="37"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="38"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="31" t="s">
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -6862,17 +6862,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -6881,14 +6878,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -6915,17 +6915,17 @@
       <c r="A1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="63" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="70"/>
-      <c r="H1" s="51"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
@@ -6937,49 +6937,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="45"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="26"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="64"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="71"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="68">
+      <c r="H2" s="34"/>
+      <c r="I2" s="39">
         <v>45631</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="60"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="26"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="66"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="35"/>
       <c r="G3" s="72"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="61"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="62"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -8327,7 +8327,7 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -8342,16 +8342,16 @@
       <c r="A1" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="63" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
@@ -8363,65 +8363,65 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="45"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="26"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="68">
+      <c r="E2" s="34"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="39">
         <v>45631</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="26"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="61"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="45"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="26"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="61"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="67"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="23"/>
@@ -8432,7 +8432,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
-      <c r="J6" s="38"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" s="78"/>
@@ -8447,7 +8447,7 @@
       <c r="J7" s="80"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -8459,7 +8459,7 @@
       <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -8471,7 +8471,7 @@
       <c r="J9" s="81"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="45"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -8483,7 +8483,7 @@
       <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -8495,7 +8495,7 @@
       <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -8507,7 +8507,7 @@
       <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="45"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -8519,7 +8519,7 @@
       <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -8531,7 +8531,7 @@
       <c r="J14" s="81"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="23"/>
@@ -8542,16 +8542,16 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="38"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="75" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="37" t="s">
-        <v>45</v>
+      <c r="D16" s="48" t="s">
+        <v>52</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -8565,7 +8565,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="23"/>
@@ -8586,107 +8586,107 @@
         <v>18</v>
       </c>
       <c r="I17" s="23"/>
-      <c r="J17" s="38"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="76" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="37" t="s">
-        <v>49</v>
-      </c>
       <c r="I18" s="23"/>
-      <c r="J18" s="38"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="76" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="18"/>
-      <c r="H19" s="37" t="s">
-        <v>50</v>
+      <c r="H19" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="I19" s="23"/>
-      <c r="J19" s="38"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="73"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="37"/>
+      <c r="H20" s="48"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="38"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="73"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="37"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="38"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="73"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="37"/>
+      <c r="H22" s="48"/>
       <c r="I22" s="23"/>
-      <c r="J22" s="38"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="73"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="37"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="23"/>
-      <c r="J23" s="38"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A24" s="75"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="41"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="26" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9667,11 +9667,16 @@
     <row r="1001" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -9688,16 +9693,11 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物(ログイン).xlsx
+++ b/プロジェクト型演習_成果物(ログイン).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F638A00-9342-43E9-8B78-1FBF26CDDAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5B1506-0F3A-4A69-BCA2-6E8A73C33A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="795" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -322,6 +322,156 @@
     <t>/LoginServlet</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>レイヤー</t>
+  </si>
+  <si>
+    <t>配置場所</t>
+    <rPh sb="0" eb="4">
+      <t>ハイチバショ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>WebApp</t>
+  </si>
+  <si>
+    <t>menu.jsp</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>メニューとログインユーザー情報を表示する
+メニュー画面</t>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>login.jsp</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ログイン情報を入力するフォーム画面</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>login-failure.jsp</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ログインの失敗を表示する画面</t>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>logout-success.jsp</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ログアウトしたことを表示する画面</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Servlet</t>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ログイン処理を行うコントロールクラス</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>model.DAO</t>
+  </si>
+  <si>
+    <t>UserDAO.java</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ユーザー情報テーブルにアクセスするDAOクラス</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>model.entity</t>
+  </si>
+  <si>
+    <t>UserBean.java</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ユーザー情報を保持するEntityクラス</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
@@ -330,7 +480,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -393,6 +543,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -408,7 +565,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -973,11 +1130,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1071,56 +1269,23 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1128,11 +1293,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1149,17 +1314,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1170,20 +1344,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1197,6 +1395,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1204,9 +1405,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1226,6 +1424,42 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4238,13 +4472,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>714875</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>219361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5654,7 +5888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -5666,19 +5900,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -5690,70 +5924,70 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="56"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="26"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="39">
+      <c r="E2" s="65"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="68">
         <v>45631</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="43"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="26"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="44"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="66" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="67"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="37" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="23"/>
@@ -5761,15 +5995,15 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
-      <c r="J6" s="49"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="37" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="23"/>
@@ -5777,15 +6011,15 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
-      <c r="J7" s="49"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="23"/>
@@ -5793,17 +6027,17 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="49"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="56" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="24"/>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="23"/>
@@ -5811,29 +6045,29 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="49"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="56" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="48"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="49"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="24"/>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="37" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="23"/>
@@ -5841,37 +6075,37 @@
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="49"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="52" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
-      <c r="D12" s="48"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="49"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="64" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="65"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -6862,6 +7096,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -6870,25 +7123,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -6915,17 +7149,17 @@
       <c r="A1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="70"/>
-      <c r="H1" s="32"/>
+      <c r="H1" s="51"/>
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
@@ -6937,49 +7171,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="56"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="26"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="33"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="71"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="39">
+      <c r="H2" s="65"/>
+      <c r="I2" s="68">
         <v>45631</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="43"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="26"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="72"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="44"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -8325,11 +8559,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J1001"/>
+  <dimension ref="A2:J1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -8338,364 +8570,440 @@
     <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="69" t="s">
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="D2" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="94"/>
+      <c r="H2" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="D3" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="94"/>
+      <c r="H3" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="94"/>
+      <c r="H5" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="94"/>
+      <c r="H6" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="94"/>
+      <c r="H7" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="D8" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="94"/>
+      <c r="H8" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="D9" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="94"/>
+      <c r="H9" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="D10" s="89"/>
+      <c r="E10" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="94"/>
+      <c r="H10" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1"/>
+    <row r="13" spans="1:10" ht="18" customHeight="1">
+      <c r="A13" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="31" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="31" t="s">
+      <c r="E13" s="51"/>
+      <c r="F13" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="4" t="s">
+      <c r="G13" s="51"/>
+      <c r="H13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="33" t="s">
+    <row r="14" spans="1:10" ht="18" customHeight="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="39">
+      <c r="E14" s="65"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="68">
         <v>45631</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I14" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="43"/>
+      <c r="J14" s="60"/>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="44"/>
+    <row r="15" spans="1:10" ht="18" customHeight="1">
+      <c r="A15" s="45"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="61"/>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="44"/>
+    <row r="16" spans="1:10" ht="18" customHeight="1">
+      <c r="A16" s="45"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="61"/>
     </row>
-    <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="73" t="s">
+    <row r="17" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A17" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="77" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="67"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
     </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="75" t="s">
+    <row r="18" spans="1:10" ht="21" customHeight="1">
+      <c r="A18" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="49"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+    <row r="19" spans="1:10" ht="21" customHeight="1">
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="80"/>
     </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="81"/>
+    <row r="20" spans="1:10" ht="21" customHeight="1">
+      <c r="A20" s="45"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="81"/>
     </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="81"/>
+    <row r="21" spans="1:10" ht="21" customHeight="1">
+      <c r="A21" s="45"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="81"/>
     </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="81"/>
+    <row r="22" spans="1:10" ht="21" customHeight="1">
+      <c r="A22" s="45"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="81"/>
     </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="81"/>
+    <row r="23" spans="1:10" ht="21" customHeight="1">
+      <c r="A23" s="45"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="81"/>
     </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="81"/>
+    <row r="24" spans="1:10" ht="21" customHeight="1">
+      <c r="A24" s="45"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="81"/>
     </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="81"/>
+    <row r="25" spans="1:10" ht="21" customHeight="1">
+      <c r="A25" s="45"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="81"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="81"/>
+    <row r="26" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A26" s="45"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="81"/>
     </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="75" t="s">
+    <row r="27" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A27" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="49"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="75" t="s">
+    <row r="28" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A28" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="48" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="15" t="s">
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J28" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="75" t="s">
+    <row r="29" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A29" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="15" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F29" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G29" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="82" t="s">
+      <c r="H29" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="49"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="38"/>
     </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="76" t="s">
+    <row r="30" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A30" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F30" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="48" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="49"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="38"/>
     </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="76" t="s">
+    <row r="31" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A31" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F31" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="48" t="s">
+      <c r="G31" s="18"/>
+      <c r="H31" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="49"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="38"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="76"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="49"/>
+    <row r="32" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A32" s="75"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="84"/>
     </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="76"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="76"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="49"/>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="76"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="49"/>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A24" s="74"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -9665,39 +9973,57 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
     <row r="1001" ht="12.75" customHeight="1"/>
+    <row r="1002" ht="12.75" customHeight="1"/>
+    <row r="1003" ht="12.75" customHeight="1"/>
+    <row r="1004" ht="12.75" customHeight="1"/>
+    <row r="1005" ht="12.75" customHeight="1"/>
+    <row r="1006" ht="12.75" customHeight="1"/>
+    <row r="1007" ht="12.75" customHeight="1"/>
+    <row r="1008" ht="12.75" customHeight="1"/>
+    <row r="1009" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A24:C24"/>
+  <mergeCells count="41">
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="F14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A13:C16"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="D14:E16"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="H31:J31"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物(ログイン).xlsx
+++ b/プロジェクト型演習_成果物(ログイン).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5B1506-0F3A-4A69-BCA2-6E8A73C33A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC61D2D-304B-4F4C-93D9-364BB9C92142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -405,20 +405,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>logout-success.jsp</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ログアウトしたことを表示する画面</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>Controller</t>
   </si>
   <si>
@@ -565,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1171,11 +1157,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1242,6 +1265,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,23 +1298,56 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1293,11 +1355,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1314,26 +1376,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1344,44 +1397,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1395,16 +1424,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1425,41 +1481,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4472,13 +4501,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>714875</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>219361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4727,85 +4756,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -4825,48 +4854,48 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="22" t="s">
+      <c r="H13" s="26"/>
+      <c r="I13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="22"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="30">
+      <c r="G14" s="24"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="32">
         <v>45631</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="22"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -4875,13 +4904,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -5900,19 +5929,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="63" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -5924,188 +5953,188 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="64" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="68">
+      <c r="E2" s="36"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="41">
         <v>45631</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="61"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="34" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="37" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="38"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="38"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="37" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="38"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="51"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="38"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="56" t="s">
+      <c r="A10" s="64"/>
+      <c r="B10" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="38"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="37" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="38"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="38"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="31" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -7096,17 +7125,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -7115,14 +7141,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -7146,20 +7175,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="63" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="51"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
@@ -7171,49 +7200,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="64" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="68">
+      <c r="E2" s="36"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="41">
         <v>45631</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="60"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="61"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="62"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -8559,7 +8588,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J1009"/>
+  <dimension ref="A2:J1008"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -8571,439 +8600,427 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="88" t="s">
+      <c r="G2" s="77"/>
+      <c r="H2" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="90" t="s">
+      <c r="G3" s="77"/>
+      <c r="H3" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="93" t="s">
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="88" t="s">
+      <c r="G5" s="77"/>
+      <c r="H5" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="93" t="s">
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="88" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="93" t="s">
+      <c r="D7" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="91" t="s">
+      <c r="E7" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
+      <c r="F7" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="77"/>
+      <c r="H7" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="D8" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="93" t="s">
+      <c r="D8" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="88" t="s">
+      <c r="E8" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
+      <c r="F8" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="77"/>
+      <c r="H8" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="D9" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="93" t="s">
+      <c r="D9" s="79"/>
+      <c r="E9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="88" t="s">
+      <c r="F9" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="D10" s="89"/>
-      <c r="E10" s="92" t="s">
+      <c r="G9" s="77"/>
+      <c r="H9" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1"/>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
-      <c r="A13" s="69" t="s">
+    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1"/>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
+      <c r="A12" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="63" t="s">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="63" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="4" t="s">
+      <c r="G12" s="34"/>
+      <c r="H12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="64" t="s">
+    <row r="13" spans="1:10" ht="18" customHeight="1">
+      <c r="A13" s="58"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="68">
+      <c r="E13" s="36"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="41">
         <v>45631</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I13" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="60"/>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
+      <c r="A14" s="58"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="61"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="46"/>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="61"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A17" s="74" t="s">
+    <row r="16" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A16" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="77" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="69"/>
+    </row>
+    <row r="17" spans="1:10" ht="21" customHeight="1">
+      <c r="A17" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="38"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="91"/>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="80"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="92"/>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="81"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="92"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="81"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="92"/>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="81"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="92"/>
     </row>
     <row r="23" spans="1:10" ht="21" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="81"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="92"/>
     </row>
     <row r="24" spans="1:10" ht="21" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="81"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="92"/>
     </row>
-    <row r="25" spans="1:10" ht="21" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="81"/>
+    <row r="25" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A25" s="58"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="92"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="81"/>
+      <c r="A26" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="51"/>
     </row>
     <row r="27" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A27" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="38"/>
-    </row>
-    <row r="28" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A28" s="76" t="s">
+      <c r="A27" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="37" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="15" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J27" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A29" s="76" t="s">
+    <row r="28" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A28" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="15" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="82" t="s">
+      <c r="H28" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="38"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="51"/>
+    </row>
+    <row r="29" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A29" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="51"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A30" s="73" t="s">
-        <v>42</v>
+      <c r="A30" s="87" t="s">
+        <v>43</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="18"/>
-      <c r="H30" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="38"/>
-    </row>
-    <row r="31" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A31" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="37" t="s">
+      <c r="H30" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="38"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="51"/>
     </row>
-    <row r="32" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="84"/>
+    <row r="31" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A31" s="82"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="81"/>
     </row>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -9980,50 +9997,48 @@
     <row r="1006" ht="12.75" customHeight="1"/>
     <row r="1007" ht="12.75" customHeight="1"/>
     <row r="1008" ht="12.75" customHeight="1"/>
-    <row r="1009" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="H10:J10"/>
+  <mergeCells count="40">
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="F13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="A12:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="D13:E15"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="F14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A13:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="D14:E16"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="H31:J31"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
